--- a/DM_Web.xlsx
+++ b/DM_Web.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Mitarbeiter\Henninger, Dirk\Allgemein\Studenten\Jihad\!DM_Converter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Mitarbeiter\Henninger, Dirk\Allgemein\Studenten\Jihad\!DM_Converter\dmconverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,19 +15,18 @@
     <sheet name="FeDaX_Spec" sheetId="3" r:id="rId1"/>
     <sheet name="FeDaX_Table" sheetId="2" r:id="rId2"/>
     <sheet name="Search" sheetId="1" r:id="rId3"/>
-    <sheet name="Content" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="FeDaX_Spec">'FeDaX_Spec'!$A$1:$C$7</definedName>
-    <definedName name="FeDaX_Table">'FeDaX_Table'!$A$1:$D$2</definedName>
-    <definedName name="Search">'Search'!$A$1:$B$359</definedName>
+    <definedName name="FeDaX_Spec">FeDaX_Spec!$A$1:$C$7</definedName>
+    <definedName name="FeDaX_Table">FeDaX_Table!$A$1:$D$2</definedName>
+    <definedName name="Search">Search!$A$1:$B$359</definedName>
   </definedNames>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Table</t>
   </si>
@@ -97,18 +96,6 @@
   <si>
     <t>{"TableName":"INT","SeriesName":"M136SBCQC.D"}</t>
   </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Created</t>
-  </si>
-  <si>
-    <t>Last modified</t>
-  </si>
 </sst>
 </file>
 
@@ -118,13 +105,8 @@
     <numFmt numFmtId="164" formatCode="m\.yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -149,12 +131,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -472,16 +453,16 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" bestFit="1" width="17.42578125" customWidth="1" style="1"/>
-    <col min="3" max="3" bestFit="1" width="52.28515625" customWidth="1" style="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -503,7 +484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -514,7 +495,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -525,7 +506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -536,7 +517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -547,7 +528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -560,7 +541,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -568,11 +548,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -602,7 +587,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -611,27 +595,27 @@
   <dimension ref="A1:B359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>33239</v>
       </c>
@@ -639,7 +623,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>33270</v>
       </c>
@@ -647,7 +631,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>33298</v>
       </c>
@@ -655,7 +639,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>33329</v>
       </c>
@@ -663,7 +647,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>33359</v>
       </c>
@@ -671,7 +655,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>33390</v>
       </c>
@@ -679,7 +663,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>33420</v>
       </c>
@@ -687,7 +671,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>33451</v>
       </c>
@@ -695,7 +679,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>33482</v>
       </c>
@@ -703,7 +687,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>33512</v>
       </c>
@@ -711,7 +695,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>33543</v>
       </c>
@@ -719,7 +703,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>33573</v>
       </c>
@@ -727,7 +711,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>33604</v>
       </c>
@@ -735,7 +719,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>33635</v>
       </c>
@@ -743,7 +727,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>33664</v>
       </c>
@@ -751,7 +735,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>33695</v>
       </c>
@@ -759,7 +743,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>33725</v>
       </c>
@@ -767,7 +751,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>33756</v>
       </c>
@@ -775,7 +759,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>33786</v>
       </c>
@@ -783,7 +767,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>33817</v>
       </c>
@@ -791,7 +775,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>33848</v>
       </c>
@@ -799,7 +783,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>33878</v>
       </c>
@@ -807,7 +791,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>33909</v>
       </c>
@@ -815,7 +799,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>33939</v>
       </c>
@@ -823,7 +807,7 @@
         <v>-42</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>33970</v>
       </c>
@@ -831,7 +815,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>34001</v>
       </c>
@@ -839,7 +823,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>34029</v>
       </c>
@@ -847,7 +831,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>34060</v>
       </c>
@@ -855,7 +839,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>34090</v>
       </c>
@@ -863,7 +847,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>34121</v>
       </c>
@@ -871,7 +855,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>34151</v>
       </c>
@@ -879,7 +863,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>34182</v>
       </c>
@@ -887,7 +871,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>34213</v>
       </c>
@@ -895,7 +879,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>34243</v>
       </c>
@@ -903,7 +887,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>34274</v>
       </c>
@@ -911,7 +895,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>34304</v>
       </c>
@@ -919,7 +903,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>34335</v>
       </c>
@@ -927,7 +911,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>34366</v>
       </c>
@@ -935,7 +919,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>34394</v>
       </c>
@@ -943,7 +927,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>34425</v>
       </c>
@@ -951,7 +935,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>34455</v>
       </c>
@@ -959,7 +943,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>34486</v>
       </c>
@@ -967,7 +951,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>34516</v>
       </c>
@@ -975,7 +959,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>34547</v>
       </c>
@@ -983,7 +967,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>34578</v>
       </c>
@@ -991,7 +975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>34608</v>
       </c>
@@ -999,7 +983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>34639</v>
       </c>
@@ -1007,7 +991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>34669</v>
       </c>
@@ -1015,7 +999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>34700</v>
       </c>
@@ -1023,7 +1007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>34731</v>
       </c>
@@ -1031,7 +1015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>34759</v>
       </c>
@@ -1039,7 +1023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>34790</v>
       </c>
@@ -1047,7 +1031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>34820</v>
       </c>
@@ -1055,7 +1039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>34851</v>
       </c>
@@ -1063,7 +1047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>34881</v>
       </c>
@@ -1071,7 +1055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>34912</v>
       </c>
@@ -1079,7 +1063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>34943</v>
       </c>
@@ -1087,7 +1071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>34973</v>
       </c>
@@ -1095,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>35004</v>
       </c>
@@ -1103,7 +1087,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>35034</v>
       </c>
@@ -1111,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>35065</v>
       </c>
@@ -1119,7 +1103,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>35096</v>
       </c>
@@ -1127,7 +1111,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>35125</v>
       </c>
@@ -1135,7 +1119,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>35156</v>
       </c>
@@ -1143,7 +1127,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>35186</v>
       </c>
@@ -1151,7 +1135,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>35217</v>
       </c>
@@ -1159,7 +1143,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>35247</v>
       </c>
@@ -1167,7 +1151,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>35278</v>
       </c>
@@ -1175,7 +1159,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>35309</v>
       </c>
@@ -1183,7 +1167,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>35339</v>
       </c>
@@ -1191,7 +1175,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>35370</v>
       </c>
@@ -1199,7 +1183,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>35400</v>
       </c>
@@ -1207,7 +1191,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>35431</v>
       </c>
@@ -1215,7 +1199,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>35462</v>
       </c>
@@ -1223,7 +1207,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>35490</v>
       </c>
@@ -1231,7 +1215,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>35521</v>
       </c>
@@ -1239,7 +1223,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>35551</v>
       </c>
@@ -1247,7 +1231,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>35582</v>
       </c>
@@ -1255,7 +1239,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>35612</v>
       </c>
@@ -1263,7 +1247,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>35643</v>
       </c>
@@ -1271,7 +1255,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>35674</v>
       </c>
@@ -1279,7 +1263,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>35704</v>
       </c>
@@ -1287,7 +1271,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>35735</v>
       </c>
@@ -1295,7 +1279,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>35765</v>
       </c>
@@ -1303,7 +1287,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>35796</v>
       </c>
@@ -1311,7 +1295,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>35827</v>
       </c>
@@ -1319,7 +1303,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>35855</v>
       </c>
@@ -1327,7 +1311,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>35886</v>
       </c>
@@ -1335,7 +1319,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>35916</v>
       </c>
@@ -1343,7 +1327,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>35947</v>
       </c>
@@ -1351,7 +1335,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>35977</v>
       </c>
@@ -1359,7 +1343,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>36008</v>
       </c>
@@ -1367,7 +1351,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>36039</v>
       </c>
@@ -1375,7 +1359,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>36069</v>
       </c>
@@ -1383,7 +1367,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>36100</v>
       </c>
@@ -1391,7 +1375,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>36130</v>
       </c>
@@ -1399,7 +1383,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>36161</v>
       </c>
@@ -1407,7 +1391,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>36192</v>
       </c>
@@ -1415,7 +1399,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>36220</v>
       </c>
@@ -1423,7 +1407,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>36251</v>
       </c>
@@ -1431,7 +1415,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>36281</v>
       </c>
@@ -1439,7 +1423,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>36312</v>
       </c>
@@ -1447,7 +1431,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>36342</v>
       </c>
@@ -1455,7 +1439,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>36373</v>
       </c>
@@ -1463,7 +1447,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>36404</v>
       </c>
@@ -1471,7 +1455,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>36434</v>
       </c>
@@ -1479,7 +1463,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>36465</v>
       </c>
@@ -1487,7 +1471,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>36495</v>
       </c>
@@ -1495,7 +1479,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>36526</v>
       </c>
@@ -1503,7 +1487,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>36557</v>
       </c>
@@ -1511,7 +1495,7 @@
         <v>-5.7</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>36586</v>
       </c>
@@ -1519,7 +1503,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>36617</v>
       </c>
@@ -1527,7 +1511,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>36647</v>
       </c>
@@ -1535,7 +1519,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>36678</v>
       </c>
@@ -1543,7 +1527,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>36708</v>
       </c>
@@ -1551,7 +1535,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>36739</v>
       </c>
@@ -1559,7 +1543,7 @@
         <v>-4.8</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>36770</v>
       </c>
@@ -1567,7 +1551,7 @@
         <v>-5.7</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>36800</v>
       </c>
@@ -1575,7 +1559,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>36831</v>
       </c>
@@ -1583,7 +1567,7 @@
         <v>-6.3</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>36861</v>
       </c>
@@ -1591,7 +1575,7 @@
         <v>-10.4</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>36892</v>
       </c>
@@ -1599,7 +1583,7 @@
         <v>-7.7</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>36923</v>
       </c>
@@ -1607,7 +1591,7 @@
         <v>-9.9</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>36951</v>
       </c>
@@ -1615,7 +1599,7 @@
         <v>-13.8</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>36982</v>
       </c>
@@ -1623,7 +1607,7 @@
         <v>-15.2</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>37012</v>
       </c>
@@ -1631,7 +1615,7 @@
         <v>-15.1</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>37043</v>
       </c>
@@ -1639,7 +1623,7 @@
         <v>-14.9</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>37073</v>
       </c>
@@ -1647,31 +1631,31 @@
         <v>-16.2</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>37104</v>
       </c>
       <c r="B131" s="3">
-        <v>-16.6</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>-16.600000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>37135</v>
       </c>
       <c r="B132" s="3">
-        <v>-32.2</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>-32.200000000000003</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>37165</v>
       </c>
       <c r="B133" s="3">
-        <v>-33.2</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>-33.200000000000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>37196</v>
       </c>
@@ -1679,7 +1663,7 @@
         <v>-31.1</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>37226</v>
       </c>
@@ -1687,7 +1671,7 @@
         <v>-29.4</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>37257</v>
       </c>
@@ -1695,7 +1679,7 @@
         <v>-28.5</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>37288</v>
       </c>
@@ -1703,7 +1687,7 @@
         <v>-21.6</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>37316</v>
       </c>
@@ -1711,7 +1695,7 @@
         <v>-20.7</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>37347</v>
       </c>
@@ -1719,7 +1703,7 @@
         <v>-20.9</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>37377</v>
       </c>
@@ -1727,7 +1711,7 @@
         <v>-16.7</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>37408</v>
       </c>
@@ -1735,7 +1719,7 @@
         <v>-21.3</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>37438</v>
       </c>
@@ -1743,7 +1727,7 @@
         <v>-21.9</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>37469</v>
       </c>
@@ -1751,15 +1735,15 @@
         <v>-31.4</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>37500</v>
       </c>
       <c r="B144" s="3">
-        <v>-19.9</v>
-      </c>
-    </row>
-    <row r="145">
+        <v>-19.899999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>37530</v>
       </c>
@@ -1767,15 +1751,15 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>37561</v>
       </c>
       <c r="B146" s="3">
-        <v>-19.4</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>-19.399999999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>37591</v>
       </c>
@@ -1783,7 +1767,7 @@
         <v>-23.1</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>37622</v>
       </c>
@@ -1791,7 +1775,7 @@
         <v>-20.3</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>37653</v>
       </c>
@@ -1799,7 +1783,7 @@
         <v>-20.8</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>37681</v>
       </c>
@@ -1807,7 +1791,7 @@
         <v>-23.5</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>37712</v>
       </c>
@@ -1815,7 +1799,7 @@
         <v>-28.9</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>37742</v>
       </c>
@@ -1823,7 +1807,7 @@
         <v>-31.8</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>37773</v>
       </c>
@@ -1831,7 +1815,7 @@
         <v>-29.7</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:2">
       <c r="A154" s="2">
         <v>37803</v>
       </c>
@@ -1839,15 +1823,15 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:2">
       <c r="A155" s="2">
         <v>37834</v>
       </c>
       <c r="B155" s="3">
-        <v>-32.3</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>-32.299999999999997</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" s="2">
         <v>37865</v>
       </c>
@@ -1855,7 +1839,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:2">
       <c r="A157" s="2">
         <v>37895</v>
       </c>
@@ -1863,7 +1847,7 @@
         <v>-27.5</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:2">
       <c r="A158" s="2">
         <v>37926</v>
       </c>
@@ -1871,7 +1855,7 @@
         <v>-27.4</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:2">
       <c r="A159" s="2">
         <v>37956</v>
       </c>
@@ -1879,7 +1863,7 @@
         <v>-26.9</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:2">
       <c r="A160" s="2">
         <v>37987</v>
       </c>
@@ -1887,7 +1871,7 @@
         <v>-24.5</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:2">
       <c r="A161" s="2">
         <v>38018</v>
       </c>
@@ -1895,7 +1879,7 @@
         <v>-27.2</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:2">
       <c r="A162" s="2">
         <v>38047</v>
       </c>
@@ -1903,31 +1887,31 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:2">
       <c r="A163" s="2">
         <v>38078</v>
       </c>
       <c r="B163" s="3">
-        <v>-20.4</v>
-      </c>
-    </row>
-    <row r="164">
+        <v>-20.399999999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
       <c r="A164" s="2">
         <v>38108</v>
       </c>
       <c r="B164" s="3">
-        <v>-19.9</v>
-      </c>
-    </row>
-    <row r="165">
+        <v>-19.899999999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" s="2">
         <v>38139</v>
       </c>
       <c r="B165" s="3">
-        <v>-18.1</v>
-      </c>
-    </row>
-    <row r="166">
+        <v>-18.100000000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" s="2">
         <v>38169</v>
       </c>
@@ -1935,7 +1919,7 @@
         <v>-13.6</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:2">
       <c r="A167" s="2">
         <v>38200</v>
       </c>
@@ -1943,15 +1927,15 @@
         <v>-18.3</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:2">
       <c r="A168" s="2">
         <v>38231</v>
       </c>
       <c r="B168" s="3">
-        <v>-16.4</v>
-      </c>
-    </row>
-    <row r="169">
+        <v>-16.399999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
       <c r="A169" s="2">
         <v>38261</v>
       </c>
@@ -1959,7 +1943,7 @@
         <v>-21.4</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:2">
       <c r="A170" s="2">
         <v>38292</v>
       </c>
@@ -1967,7 +1951,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:2">
       <c r="A171" s="2">
         <v>38322</v>
       </c>
@@ -1975,7 +1959,7 @@
         <v>-19.5</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:2">
       <c r="A172" s="2">
         <v>38353</v>
       </c>
@@ -1983,7 +1967,7 @@
         <v>-20.8</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:2">
       <c r="A173" s="2">
         <v>38384</v>
       </c>
@@ -1991,7 +1975,7 @@
         <v>-22.4</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:2">
       <c r="A174" s="2">
         <v>38412</v>
       </c>
@@ -1999,7 +1983,7 @@
         <v>-24.8</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:2">
       <c r="A175" s="2">
         <v>38443</v>
       </c>
@@ -2007,7 +1991,7 @@
         <v>-31.7</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:2">
       <c r="A176" s="2">
         <v>38473</v>
       </c>
@@ -2015,7 +1999,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:2">
       <c r="A177" s="2">
         <v>38504</v>
       </c>
@@ -2023,7 +2007,7 @@
         <v>-30.9</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:2">
       <c r="A178" s="2">
         <v>38534</v>
       </c>
@@ -2031,7 +2015,7 @@
         <v>-28.3</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:2">
       <c r="A179" s="2">
         <v>38565</v>
       </c>
@@ -2039,7 +2023,7 @@
         <v>-21.5</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:2">
       <c r="A180" s="2">
         <v>38596</v>
       </c>
@@ -2047,7 +2031,7 @@
         <v>-21.9</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:2">
       <c r="A181" s="2">
         <v>38626</v>
       </c>
@@ -2055,15 +2039,15 @@
         <v>-18.7</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:2">
       <c r="A182" s="2">
         <v>38657</v>
       </c>
       <c r="B182" s="3">
-        <v>-16.9</v>
-      </c>
-    </row>
-    <row r="183">
+        <v>-16.899999999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" s="2">
         <v>38687</v>
       </c>
@@ -2071,7 +2055,7 @@
         <v>-13.3</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:2">
       <c r="A184" s="2">
         <v>38718</v>
       </c>
@@ -2079,7 +2063,7 @@
         <v>-13.1</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:2">
       <c r="A185" s="2">
         <v>38749</v>
       </c>
@@ -2087,15 +2071,15 @@
         <v>-12.2</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:2">
       <c r="A186" s="2">
         <v>38777</v>
       </c>
       <c r="B186" s="3">
-        <v>-8.2</v>
-      </c>
-    </row>
-    <row r="187">
+        <v>-8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
       <c r="A187" s="2">
         <v>38808</v>
       </c>
@@ -2103,7 +2087,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:2">
       <c r="A188" s="2">
         <v>38838</v>
       </c>
@@ -2111,7 +2095,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:2">
       <c r="A189" s="2">
         <v>38869</v>
       </c>
@@ -2119,7 +2103,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:2">
       <c r="A190" s="2">
         <v>38899</v>
       </c>
@@ -2127,15 +2111,15 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:2">
       <c r="A191" s="2">
         <v>38930</v>
       </c>
       <c r="B191" s="3">
-        <v>-4.9</v>
-      </c>
-    </row>
-    <row r="192">
+        <v>-4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192" s="2">
         <v>38961</v>
       </c>
@@ -2143,7 +2127,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:2">
       <c r="A193" s="2">
         <v>38991</v>
       </c>
@@ -2151,7 +2135,7 @@
         <v>-5.4</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:2">
       <c r="A194" s="2">
         <v>39022</v>
       </c>
@@ -2159,7 +2143,7 @@
         <v>-4.7</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:2">
       <c r="A195" s="2">
         <v>39052</v>
       </c>
@@ -2167,7 +2151,7 @@
         <v>-5.6</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:2">
       <c r="A196" s="2">
         <v>39083</v>
       </c>
@@ -2175,7 +2159,7 @@
         <v>-8.4</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:2">
       <c r="A197" s="2">
         <v>39114</v>
       </c>
@@ -2183,7 +2167,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:2">
       <c r="A198" s="2">
         <v>39142</v>
       </c>
@@ -2191,7 +2175,7 @@
         <v>-3.2</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:2">
       <c r="A199" s="2">
         <v>39173</v>
       </c>
@@ -2199,7 +2183,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:2">
       <c r="A200" s="2">
         <v>39203</v>
       </c>
@@ -2207,7 +2191,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:2">
       <c r="A201" s="2">
         <v>39234</v>
       </c>
@@ -2215,7 +2199,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:2">
       <c r="A202" s="2">
         <v>39264</v>
       </c>
@@ -2223,7 +2207,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:2">
       <c r="A203" s="2">
         <v>39295</v>
       </c>
@@ -2231,15 +2215,15 @@
         <v>-4.2</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:2">
       <c r="A204" s="2">
         <v>39326</v>
       </c>
       <c r="B204" s="3">
-        <v>-8.8</v>
-      </c>
-    </row>
-    <row r="205">
+        <v>-8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205" s="2">
         <v>39356</v>
       </c>
@@ -2247,7 +2231,7 @@
         <v>-9.6</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:2">
       <c r="A206" s="2">
         <v>39387</v>
       </c>
@@ -2255,7 +2239,7 @@
         <v>-9.9</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:2">
       <c r="A207" s="2">
         <v>39417</v>
       </c>
@@ -2263,7 +2247,7 @@
         <v>-9.1</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:2">
       <c r="A208" s="2">
         <v>39448</v>
       </c>
@@ -2271,7 +2255,7 @@
         <v>-9.9</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:2">
       <c r="A209" s="2">
         <v>39479</v>
       </c>
@@ -2279,7 +2263,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:2">
       <c r="A210" s="2">
         <v>39508</v>
       </c>
@@ -2287,7 +2271,7 @@
         <v>-11.9</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:2">
       <c r="A211" s="2">
         <v>39539</v>
       </c>
@@ -2295,7 +2279,7 @@
         <v>-20.5</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:2">
       <c r="A212" s="2">
         <v>39569</v>
       </c>
@@ -2303,7 +2287,7 @@
         <v>-15.3</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:2">
       <c r="A213" s="2">
         <v>39600</v>
       </c>
@@ -2311,7 +2295,7 @@
         <v>-19.5</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:2">
       <c r="A214" s="2">
         <v>39630</v>
       </c>
@@ -2319,7 +2303,7 @@
         <v>-20.2</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:2">
       <c r="A215" s="2">
         <v>39661</v>
       </c>
@@ -2327,7 +2311,7 @@
         <v>-24.9</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:2">
       <c r="A216" s="2">
         <v>39692</v>
       </c>
@@ -2335,15 +2319,15 @@
         <v>-28.7</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:2">
       <c r="A217" s="2">
         <v>39722</v>
       </c>
       <c r="B217" s="3">
-        <v>-32.8</v>
-      </c>
-    </row>
-    <row r="218">
+        <v>-32.799999999999997</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
       <c r="A218" s="2">
         <v>39753</v>
       </c>
@@ -2351,7 +2335,7 @@
         <v>-43.8</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:2">
       <c r="A219" s="2">
         <v>39783</v>
       </c>
@@ -2359,7 +2343,7 @@
         <v>-51.2</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:2">
       <c r="A220" s="2">
         <v>39814</v>
       </c>
@@ -2367,7 +2351,7 @@
         <v>-57.2</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:2">
       <c r="A221" s="2">
         <v>39845</v>
       </c>
@@ -2375,7 +2359,7 @@
         <v>-65.7</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:2">
       <c r="A222" s="2">
         <v>39873</v>
       </c>
@@ -2383,7 +2367,7 @@
         <v>-66.5</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:2">
       <c r="A223" s="2">
         <v>39904</v>
       </c>
@@ -2391,15 +2375,15 @@
         <v>-65.5</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:2">
       <c r="A224" s="2">
         <v>39934</v>
       </c>
       <c r="B224" s="3">
-        <v>-67.4</v>
-      </c>
-    </row>
-    <row r="225">
+        <v>-67.400000000000006</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
       <c r="A225" s="2">
         <v>39965</v>
       </c>
@@ -2407,7 +2391,7 @@
         <v>-64.7</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:2">
       <c r="A226" s="2">
         <v>39995</v>
       </c>
@@ -2415,7 +2399,7 @@
         <v>-62.5</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:2">
       <c r="A227" s="2">
         <v>40026</v>
       </c>
@@ -2423,7 +2407,7 @@
         <v>-55.7</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:2">
       <c r="A228" s="2">
         <v>40057</v>
       </c>
@@ -2431,7 +2415,7 @@
         <v>-55.8</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:2">
       <c r="A229" s="2">
         <v>40087</v>
       </c>
@@ -2439,7 +2423,7 @@
         <v>-55.2</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:2">
       <c r="A230" s="2">
         <v>40118</v>
       </c>
@@ -2447,7 +2431,7 @@
         <v>-49.5</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:2">
       <c r="A231" s="2">
         <v>40148</v>
       </c>
@@ -2455,7 +2439,7 @@
         <v>-44.8</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:2">
       <c r="A232" s="2">
         <v>40179</v>
       </c>
@@ -2463,23 +2447,23 @@
         <v>-44.2</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:2">
       <c r="A233" s="2">
         <v>40210</v>
       </c>
       <c r="B233" s="3">
-        <v>-40.7</v>
-      </c>
-    </row>
-    <row r="234">
+        <v>-40.700000000000003</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
       <c r="A234" s="2">
         <v>40238</v>
       </c>
       <c r="B234" s="3">
-        <v>-39.7</v>
-      </c>
-    </row>
-    <row r="235">
+        <v>-39.700000000000003</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
       <c r="A235" s="2">
         <v>40269</v>
       </c>
@@ -2487,7 +2471,7 @@
         <v>-30.4</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:2">
       <c r="A236" s="2">
         <v>40299</v>
       </c>
@@ -2495,7 +2479,7 @@
         <v>-28.9</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:2">
       <c r="A237" s="2">
         <v>40330</v>
       </c>
@@ -2503,7 +2487,7 @@
         <v>-27.9</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:2">
       <c r="A238" s="2">
         <v>40360</v>
       </c>
@@ -2511,7 +2495,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:2">
       <c r="A239" s="2">
         <v>40391</v>
       </c>
@@ -2519,7 +2503,7 @@
         <v>-22.7</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:2">
       <c r="A240" s="2">
         <v>40422</v>
       </c>
@@ -2527,15 +2511,15 @@
         <v>-21.7</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:2">
       <c r="A241" s="2">
         <v>40452</v>
       </c>
       <c r="B241" s="3">
-        <v>-17.1</v>
-      </c>
-    </row>
-    <row r="242">
+        <v>-17.100000000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
       <c r="A242" s="2">
         <v>40483</v>
       </c>
@@ -2543,7 +2527,7 @@
         <v>-15.5</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:2">
       <c r="A243" s="2">
         <v>40513</v>
       </c>
@@ -2551,7 +2535,7 @@
         <v>-12.6</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:2">
       <c r="A244" s="2">
         <v>40544</v>
       </c>
@@ -2559,7 +2543,7 @@
         <v>-11.6</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:2">
       <c r="A245" s="2">
         <v>40575</v>
       </c>
@@ -2567,7 +2551,7 @@
         <v>-6.7</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:2">
       <c r="A246" s="2">
         <v>40603</v>
       </c>
@@ -2575,7 +2559,7 @@
         <v>-10.9</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:2">
       <c r="A247" s="2">
         <v>40634</v>
       </c>
@@ -2583,7 +2567,7 @@
         <v>-8.6</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:2">
       <c r="A248" s="2">
         <v>40664</v>
       </c>
@@ -2591,7 +2575,7 @@
         <v>-10.7</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:2">
       <c r="A249" s="2">
         <v>40695</v>
       </c>
@@ -2599,7 +2583,7 @@
         <v>-15.3</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:2">
       <c r="A250" s="2">
         <v>40725</v>
       </c>
@@ -2607,7 +2591,7 @@
         <v>-13.1</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:2">
       <c r="A251" s="2">
         <v>40756</v>
       </c>
@@ -2615,15 +2599,15 @@
         <v>-14.4</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:2">
       <c r="A252" s="2">
         <v>40787</v>
       </c>
       <c r="B252" s="3">
-        <v>-19.4</v>
-      </c>
-    </row>
-    <row r="253">
+        <v>-19.399999999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
       <c r="A253" s="2">
         <v>40817</v>
       </c>
@@ -2631,7 +2615,7 @@
         <v>-21.8</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:2">
       <c r="A254" s="2">
         <v>40848</v>
       </c>
@@ -2639,7 +2623,7 @@
         <v>-22.6</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:2">
       <c r="A255" s="2">
         <v>40878</v>
       </c>
@@ -2647,7 +2631,7 @@
         <v>-24.2</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:2">
       <c r="A256" s="2">
         <v>40909</v>
       </c>
@@ -2655,7 +2639,7 @@
         <v>-22.3</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:2">
       <c r="A257" s="2">
         <v>40940</v>
       </c>
@@ -2663,7 +2647,7 @@
         <v>-27.3</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:2">
       <c r="A258" s="2">
         <v>40969</v>
       </c>
@@ -2671,7 +2655,7 @@
         <v>-28.8</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:2">
       <c r="A259" s="2">
         <v>41000</v>
       </c>
@@ -2679,7 +2663,7 @@
         <v>-29.3</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:2">
       <c r="A260" s="2">
         <v>41030</v>
       </c>
@@ -2687,7 +2671,7 @@
         <v>-28.3</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:2">
       <c r="A261" s="2">
         <v>41061</v>
       </c>
@@ -2695,7 +2679,7 @@
         <v>-24.1</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:2">
       <c r="A262" s="2">
         <v>41091</v>
       </c>
@@ -2703,7 +2687,7 @@
         <v>-27.9</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:2">
       <c r="A263" s="2">
         <v>41122</v>
       </c>
@@ -2711,7 +2695,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:2">
       <c r="A264" s="2">
         <v>41153</v>
       </c>
@@ -2719,7 +2703,7 @@
         <v>-26.8</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:2">
       <c r="A265" s="2">
         <v>41183</v>
       </c>
@@ -2727,15 +2711,15 @@
         <v>-29.6</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:2">
       <c r="A266" s="2">
         <v>41214</v>
       </c>
       <c r="B266" s="3">
-        <v>-32.2</v>
-      </c>
-    </row>
-    <row r="267">
+        <v>-32.200000000000003</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
       <c r="A267" s="2">
         <v>41244</v>
       </c>
@@ -2743,7 +2727,7 @@
         <v>-29.1</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:2">
       <c r="A268" s="2">
         <v>41275</v>
       </c>
@@ -2751,7 +2735,7 @@
         <v>-28.7</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:2">
       <c r="A269" s="2">
         <v>41306</v>
       </c>
@@ -2759,7 +2743,7 @@
         <v>-29.7</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:2">
       <c r="A270" s="2">
         <v>41334</v>
       </c>
@@ -2767,7 +2751,7 @@
         <v>-31.3</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:2">
       <c r="A271" s="2">
         <v>41365</v>
       </c>
@@ -2775,7 +2759,7 @@
         <v>-27.1</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:2">
       <c r="A272" s="2">
         <v>41395</v>
       </c>
@@ -2783,7 +2767,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:2">
       <c r="A273" s="2">
         <v>41426</v>
       </c>
@@ -2791,7 +2775,7 @@
         <v>-10.5</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:2">
       <c r="A274" s="2">
         <v>41456</v>
       </c>
@@ -2799,7 +2783,7 @@
         <v>-13.3</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:2">
       <c r="A275" s="2">
         <v>41487</v>
       </c>
@@ -2807,7 +2791,7 @@
         <v>-10.6</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:2">
       <c r="A276" s="2">
         <v>41518</v>
       </c>
@@ -2815,7 +2799,7 @@
         <v>-10.1</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:2">
       <c r="A277" s="2">
         <v>41548</v>
       </c>
@@ -2823,7 +2807,7 @@
         <v>-12.2</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:2">
       <c r="A278" s="2">
         <v>41579</v>
       </c>
@@ -2831,7 +2815,7 @@
         <v>-7.4</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:2">
       <c r="A279" s="2">
         <v>41609</v>
       </c>
@@ -2839,7 +2823,7 @@
         <v>-13.2</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:2">
       <c r="A280" s="2">
         <v>41640</v>
       </c>
@@ -2847,7 +2831,7 @@
         <v>-12.9</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:2">
       <c r="A281" s="2">
         <v>41671</v>
       </c>
@@ -2855,7 +2839,7 @@
         <v>-12.9</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:2">
       <c r="A282" s="2">
         <v>41699</v>
       </c>
@@ -2863,7 +2847,7 @@
         <v>-14.6</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:2">
       <c r="A283" s="2">
         <v>41730</v>
       </c>
@@ -2871,7 +2855,7 @@
         <v>-12.1</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:2">
       <c r="A284" s="2">
         <v>41760</v>
       </c>
@@ -2879,7 +2863,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:2">
       <c r="A285" s="2">
         <v>41791</v>
       </c>
@@ -2887,7 +2871,7 @@
         <v>-13.4</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:2">
       <c r="A286" s="2">
         <v>41821</v>
       </c>
@@ -2895,7 +2879,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:2">
       <c r="A287" s="2">
         <v>41852</v>
       </c>
@@ -2903,7 +2887,7 @@
         <v>-14.6</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:2">
       <c r="A288" s="2">
         <v>41883</v>
       </c>
@@ -2911,7 +2895,7 @@
         <v>-16.3</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:2">
       <c r="A289" s="2">
         <v>41913</v>
       </c>
@@ -2919,7 +2903,7 @@
         <v>-18.5</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:2">
       <c r="A290" s="2">
         <v>41944</v>
       </c>
@@ -2927,15 +2911,15 @@
         <v>-18.5</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:2">
       <c r="A291" s="2">
         <v>41974</v>
       </c>
       <c r="B291" s="3">
-        <v>-19.6</v>
-      </c>
-    </row>
-    <row r="292">
+        <v>-19.600000000000001</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
       <c r="A292" s="2">
         <v>42005</v>
       </c>
@@ -2943,15 +2927,15 @@
         <v>-17.7</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:2">
       <c r="A293" s="2">
         <v>42036</v>
       </c>
       <c r="B293" s="3">
-        <v>-19.1</v>
-      </c>
-    </row>
-    <row r="294">
+        <v>-19.100000000000001</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
       <c r="A294" s="2">
         <v>42064</v>
       </c>
@@ -2959,7 +2943,7 @@
         <v>-13.8</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:2">
       <c r="A295" s="2">
         <v>42095</v>
       </c>
@@ -2967,7 +2951,7 @@
         <v>-10.6</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:2">
       <c r="A296" s="2">
         <v>42125</v>
       </c>
@@ -2975,7 +2959,7 @@
         <v>-11.8</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:2">
       <c r="A297" s="2">
         <v>42156</v>
       </c>
@@ -2983,7 +2967,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:2">
       <c r="A298" s="2">
         <v>42186</v>
       </c>
@@ -2991,7 +2975,7 @@
         <v>-11.1</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:2">
       <c r="A299" s="2">
         <v>42217</v>
       </c>
@@ -2999,7 +2983,7 @@
         <v>-12.8</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:2">
       <c r="A300" s="2">
         <v>42248</v>
       </c>
@@ -3007,7 +2991,7 @@
         <v>-13.5</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:2">
       <c r="A301" s="2">
         <v>42278</v>
       </c>
@@ -3015,7 +2999,7 @@
         <v>-10.5</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:2">
       <c r="A302" s="2">
         <v>42309</v>
       </c>
@@ -3023,7 +3007,7 @@
         <v>-10.4</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:2">
       <c r="A303" s="2">
         <v>42339</v>
       </c>
@@ -3031,7 +3015,7 @@
         <v>-11.6</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:2">
       <c r="A304" s="2">
         <v>42370</v>
       </c>
@@ -3039,23 +3023,23 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:2">
       <c r="A305" s="2">
         <v>42401</v>
       </c>
       <c r="B305" s="3">
-        <v>-17.4</v>
-      </c>
-    </row>
-    <row r="306">
+        <v>-17.399999999999999</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
       <c r="A306" s="2">
         <v>42430</v>
       </c>
       <c r="B306" s="3">
-        <v>-16.4</v>
-      </c>
-    </row>
-    <row r="307">
+        <v>-16.399999999999999</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
       <c r="A307" s="2">
         <v>42461</v>
       </c>
@@ -3063,7 +3047,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:2">
       <c r="A308" s="2">
         <v>42491</v>
       </c>
@@ -3071,15 +3055,15 @@
         <v>-16.5</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:2">
       <c r="A309" s="2">
         <v>42522</v>
       </c>
       <c r="B309" s="3">
-        <v>-16.4</v>
-      </c>
-    </row>
-    <row r="310">
+        <v>-16.399999999999999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
       <c r="A310" s="2">
         <v>42552</v>
       </c>
@@ -3087,7 +3071,7 @@
         <v>-12.5</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:2">
       <c r="A311" s="2">
         <v>42583</v>
       </c>
@@ -3095,15 +3079,15 @@
         <v>-15.4</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:2">
       <c r="A312" s="2">
         <v>42614</v>
       </c>
       <c r="B312" s="3">
-        <v>-16.1</v>
-      </c>
-    </row>
-    <row r="313">
+        <v>-16.100000000000001</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
       <c r="A313" s="2">
         <v>42644</v>
       </c>
@@ -3111,7 +3095,7 @@
         <v>-13.2</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:2">
       <c r="A314" s="2">
         <v>42675</v>
       </c>
@@ -3119,7 +3103,7 @@
         <v>-15.9</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:2">
       <c r="A315" s="2">
         <v>42705</v>
       </c>
@@ -3127,7 +3111,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:2">
       <c r="A316" s="2">
         <v>42736</v>
       </c>
@@ -3135,7 +3119,7 @@
         <v>-13.4</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:2">
       <c r="A317" s="2">
         <v>42767</v>
       </c>
@@ -3143,15 +3127,15 @@
         <v>-8.5</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:2">
       <c r="A318" s="2">
         <v>42795</v>
       </c>
       <c r="B318" s="3">
-        <v>-5.1</v>
-      </c>
-    </row>
-    <row r="319">
+        <v>-5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
       <c r="A319" s="2">
         <v>42826</v>
       </c>
@@ -3159,7 +3143,7 @@
         <v>-5.7</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:2">
       <c r="A320" s="2">
         <v>42856</v>
       </c>
@@ -3167,7 +3151,7 @@
         <v>-7.9</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:2">
       <c r="A321" s="2">
         <v>42887</v>
       </c>
@@ -3175,7 +3159,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:2">
       <c r="A322" s="2">
         <v>42917</v>
       </c>
@@ -3183,7 +3167,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:2">
       <c r="A323" s="2">
         <v>42948</v>
       </c>
@@ -3191,7 +3175,7 @@
         <v>-9.5</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:2">
       <c r="A324" s="2">
         <v>42979</v>
       </c>
@@ -3199,7 +3183,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:2">
       <c r="A325" s="2">
         <v>43009</v>
       </c>
@@ -3207,7 +3191,7 @@
         <v>-3.4</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:2">
       <c r="A326" s="2">
         <v>43040</v>
       </c>
@@ -3215,7 +3199,7 @@
         <v>-3.4</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:2">
       <c r="A327" s="2">
         <v>43070</v>
       </c>
@@ -3223,7 +3207,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:2">
       <c r="A328" s="2">
         <v>43101</v>
       </c>
@@ -3231,15 +3215,15 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:2">
       <c r="A329" s="2">
         <v>43132</v>
       </c>
       <c r="B329" s="3">
-        <v>-4.1</v>
-      </c>
-    </row>
-    <row r="330">
+        <v>-4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
       <c r="A330" s="2">
         <v>43160</v>
       </c>
@@ -3247,7 +3231,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:2">
       <c r="A331" s="2">
         <v>43191</v>
       </c>
@@ -3255,7 +3239,7 @@
         <v>-6.4</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:2">
       <c r="A332" s="2">
         <v>43221</v>
       </c>
@@ -3263,7 +3247,7 @@
         <v>-5.7</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:2">
       <c r="A333" s="2">
         <v>43252</v>
       </c>
@@ -3271,7 +3255,7 @@
         <v>-3.7</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:2">
       <c r="A334" s="2">
         <v>43282</v>
       </c>
@@ -3279,7 +3263,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:2">
       <c r="A335" s="2">
         <v>43313</v>
       </c>
@@ -3287,7 +3271,7 @@
         <v>-13.3</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:2">
       <c r="A336" s="2">
         <v>43344</v>
       </c>
@@ -3295,7 +3279,7 @@
         <v>-7.4</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:2">
       <c r="A337" s="2">
         <v>43374</v>
       </c>
@@ -3303,7 +3287,7 @@
         <v>-10.4</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:2">
       <c r="A338" s="2">
         <v>43405</v>
       </c>
@@ -3311,7 +3295,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:2">
       <c r="A339" s="2">
         <v>43435</v>
       </c>
@@ -3319,7 +3303,7 @@
         <v>-11.4</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:2">
       <c r="A340" s="2">
         <v>43466</v>
       </c>
@@ -3327,7 +3311,7 @@
         <v>-12.1</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:2">
       <c r="A341" s="2">
         <v>43497</v>
       </c>
@@ -3335,7 +3319,7 @@
         <v>-13.7</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:2">
       <c r="A342" s="2">
         <v>43525</v>
       </c>
@@ -3343,7 +3327,7 @@
         <v>-13.6</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:2">
       <c r="A343" s="2">
         <v>43556</v>
       </c>
@@ -3351,7 +3335,7 @@
         <v>-12.5</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:2">
       <c r="A344" s="2">
         <v>43586</v>
       </c>
@@ -3359,7 +3343,7 @@
         <v>-12.8</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:2">
       <c r="A345" s="2">
         <v>43617</v>
       </c>
@@ -3367,7 +3351,7 @@
         <v>-11.8</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:2">
       <c r="A346" s="2">
         <v>43647</v>
       </c>
@@ -3375,7 +3359,7 @@
         <v>-17.3</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:2">
       <c r="A347" s="2">
         <v>43678</v>
       </c>
@@ -3383,7 +3367,7 @@
         <v>-18.2</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:2">
       <c r="A348" s="2">
         <v>43709</v>
       </c>
@@ -3391,7 +3375,7 @@
         <v>-17.7</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:2">
       <c r="A349" s="2">
         <v>43739</v>
       </c>
@@ -3399,15 +3383,15 @@
         <v>-17.8</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:2">
       <c r="A350" s="2">
         <v>43770</v>
       </c>
       <c r="B350" s="3">
-        <v>-20.1</v>
-      </c>
-    </row>
-    <row r="351">
+        <v>-20.100000000000001</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
       <c r="A351" s="2">
         <v>43800</v>
       </c>
@@ -3415,15 +3399,15 @@
         <v>-19.3</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:2">
       <c r="A352" s="2">
         <v>43831</v>
       </c>
       <c r="B352" s="3">
-        <v>-17.4</v>
-      </c>
-    </row>
-    <row r="353">
+        <v>-17.399999999999999</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
       <c r="A353" s="2">
         <v>43862</v>
       </c>
@@ -3431,7 +3415,7 @@
         <v>-18.2</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:2">
       <c r="A354" s="2">
         <v>43891</v>
       </c>
@@ -3439,7 +3423,7 @@
         <v>-26.1</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:2">
       <c r="A355" s="2">
         <v>43922</v>
       </c>
@@ -3447,7 +3431,7 @@
         <v>-44.25</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:2">
       <c r="A356" s="2">
         <v>43952</v>
       </c>
@@ -3455,7 +3439,7 @@
         <v>-62.4</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:2">
       <c r="A357" s="2">
         <v>43983</v>
       </c>
@@ -3463,7 +3447,7 @@
         <v>-54.7</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:2">
       <c r="A358" s="2">
         <v>44013</v>
       </c>
@@ -3471,7 +3455,7 @@
         <v>-51.9</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:2">
       <c r="A359" s="2">
         <v>44044</v>
       </c>
@@ -3481,40 +3465,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="B1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="9.140625" customWidth="1" outlineLevel="1" collapsed="1" hidden="1" style="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1" outlineLevel="1" collapsed="1" hidden="1" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/DM_Web.xlsx
+++ b/DM_Web.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19470" windowHeight="9855" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19470" windowHeight="9855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FeDaX_Spec" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="FeDaX_Table">FeDaX_Table!$A$1:$D$2</definedName>
     <definedName name="Search">Search!$A$1:$B$359</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -453,7 +453,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -548,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B359"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/DM_Web.xlsx
+++ b/DM_Web.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19470" windowHeight="9855" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19470" windowHeight="9855"/>
   </bookViews>
   <sheets>
     <sheet name="FeDaX_Spec" sheetId="3" r:id="rId1"/>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/DM_Web.xlsx
+++ b/DM_Web.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Mitarbeiter\Henninger, Dirk\Allgemein\Studenten\Jihad\!DM_Converter\dmconverter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\für Arbeit\DmConverter\dmconverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1F6EE2-7386-4A40-8326-331E37F36838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19470" windowHeight="9855"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FeDaX_Spec" sheetId="3" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Table</t>
   </si>
@@ -96,11 +97,20 @@
   <si>
     <t>{"TableName":"INT","SeriesName":"M136SBCQC.D"}</t>
   </si>
+  <si>
+    <t>{"TableName":"INT","SeriesName":"M136SBC44QC.D"}</t>
+  </si>
+  <si>
+    <t>{"TableName":"INT","SeriesName":"M136SBC22QC.D"}</t>
+  </si>
+  <si>
+    <t>{"TableName":"INT","SeriesName":"M136SB55CQC.D"}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m\.yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -449,11 +459,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -539,13 +549,46 @@
         <v>22</v>
       </c>
     </row>
+    <row r="8" spans="1:3" s="1" customFormat="1">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -591,7 +634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
